--- a/Exp4/Dados/Retificador/1.xlsx
+++ b/Exp4/Dados/Retificador/1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680"/>
@@ -11,12 +11,12 @@
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>alfa</t>
   </si>
@@ -25,12 +25,34 @@
   </si>
   <si>
     <t>w</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>Vr</t>
+  </si>
+  <si>
+    <t>Ra</t>
+  </si>
+  <si>
+    <t>Rr</t>
+  </si>
+  <si>
+    <t>Tm (v^2 /ra)/w</t>
+  </si>
+  <si>
+    <t>Tm=va*ia/wm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -68,9 +90,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,15 +396,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -390,8 +418,26 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>120</v>
       </c>
@@ -401,8 +447,22 @@
       <c r="C2">
         <v>340</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <f>F2/$O$1</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>(B2*B2)/($O$2*C2)</f>
+        <v>8.6135889798957532E-3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>110</v>
       </c>
@@ -413,8 +473,16 @@
         <v>470</v>
       </c>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <f>F3/$O$1</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J8" si="0">(B3*B3)/($O$2*C3)</f>
+        <v>9.3751683274979798E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>100</v>
       </c>
@@ -424,8 +492,16 @@
       <c r="C4">
         <v>650</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <f>F4/$O$1</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>9.8723271665043816E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>90</v>
       </c>
@@ -435,8 +511,23 @@
       <c r="C5">
         <v>900</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G5" s="3">
+        <f>F5/$O$1</f>
+        <v>0.29473684210526319</v>
+      </c>
+      <c r="I5" s="2">
+        <f>B5*G5/C5</f>
+        <v>2.7836257309941524E-3</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1.0161744022503517E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>80</v>
       </c>
@@ -446,8 +537,16 @@
       <c r="C6">
         <v>1150</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <f>F6/$O$1</f>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1.0571271326362137E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>70</v>
       </c>
@@ -457,8 +556,16 @@
       <c r="C7">
         <v>1350</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <f>F7/$O$1</f>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>1.0535396155649321E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>60</v>
       </c>
@@ -468,8 +575,16 @@
       <c r="C8">
         <v>1510</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <f>F8/$O$1</f>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>1.1280073769804678E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H13" s="1"/>
     </row>
   </sheetData>

--- a/Exp4/Dados/Retificador/1.xlsx
+++ b/Exp4/Dados/Retificador/1.xlsx
@@ -176,15 +176,15 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
+      <selection pane="topLeft" activeCell="L8" activeCellId="0" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="8" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -456,7 +456,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -482,7 +482,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Exp4/Dados/Retificador/1.xlsx
+++ b/Exp4/Dados/Retificador/1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t xml:space="preserve">alfa</t>
   </si>
@@ -45,6 +45,9 @@
     <t xml:space="preserve">T</t>
   </si>
   <si>
+    <t xml:space="preserve">B + Bwl</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rr</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
   </si>
   <si>
     <t xml:space="preserve">kt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rad</t>
   </si>
 </sst>
 </file>
@@ -65,7 +71,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -95,6 +101,16 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -165,7 +181,414 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Plan1!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Plan1!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>35.6047167406843</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.2182849062401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68.0678408277789</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.2477796076938</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120.427718387609</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>141.371669411541</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158.126830230686</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="61312215"/>
+        <c:axId val="79999942"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="61312215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Alfa (rad)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="79999942"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="79999942"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Omega (rad/s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="61312215"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>628560</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>79200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>541080</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38880</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5276520" y="1671480"/>
+        <a:ext cx="7589880" cy="3457440"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -173,18 +596,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L8" activeCellId="0" sqref="L8"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="8" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -212,8 +635,11 @@
       <c r="J1" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K1" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="N1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O1" s="0" t="n">
         <v>3.8</v>
@@ -245,8 +671,12 @@
         <f aca="false">(B2-O3*D2)/(O1+O2)</f>
         <v>0.248002199230269</v>
       </c>
+      <c r="K2" s="0" t="n">
+        <f aca="false">I2/D2</f>
+        <v>0.000373339562565988</v>
+      </c>
       <c r="N2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>7.9</v>
@@ -273,14 +703,18 @@
       </c>
       <c r="I3" s="0" t="n">
         <f aca="false">O4*J3</f>
-        <v>0.0149433470740426</v>
+        <v>0.0149433470740425</v>
       </c>
       <c r="J3" s="0" t="n">
         <f aca="false">(B3-O3*D3)/(O1+O2)</f>
         <v>0.278799420202929</v>
       </c>
+      <c r="K3" s="0" t="n">
+        <f aca="false">I3/D3</f>
+        <v>0.00030361373019213</v>
+      </c>
       <c r="N3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O3" s="2" t="n">
         <f aca="false">(B5-(O1+O2)*G5)/D5</f>
@@ -313,8 +747,12 @@
         <f aca="false">(B4-O3*D4)/(O1+O2)</f>
         <v>0.296721147598341</v>
       </c>
+      <c r="K4" s="0" t="n">
+        <f aca="false">I4/D4</f>
+        <v>0.000233648255411695</v>
+      </c>
       <c r="N4" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O4" s="0" t="n">
         <f aca="false">O3</f>
@@ -350,6 +788,10 @@
         <f aca="false">(B5-O3*D5)/(O1+O2)</f>
         <v>0.294736842105263</v>
       </c>
+      <c r="K5" s="0" t="n">
+        <f aca="false">I5/D5</f>
+        <v>0.000167617483390437</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -377,6 +819,10 @@
         <f aca="false">(B6-O3*D6)/(O1+O2)</f>
         <v>0.285914929774579</v>
       </c>
+      <c r="K6" s="0" t="n">
+        <f aca="false">I6/D6</f>
+        <v>0.00012725252033741</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -398,11 +844,15 @@
       </c>
       <c r="I7" s="0" t="n">
         <f aca="false">O4*J7</f>
-        <v>0.0138469897527768</v>
+        <v>0.0138469897527767</v>
       </c>
       <c r="J7" s="0" t="n">
         <f aca="false">(B7-O3*D7)/(O1+O2)</f>
-        <v>0.258344579397211</v>
+        <v>0.258344579397209</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <f aca="false">I7/D7</f>
+        <v>9.79474162709879E-005</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -430,6 +880,57 @@
       <c r="J8" s="0" t="n">
         <f aca="false">(B8-O3*D8)/(O1+O2)</f>
         <v>0.267057529864547</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <f aca="false">I8/D8</f>
+        <v>9.05222373942511E-005</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <f aca="false">A2/180*PI()</f>
+        <v>2.0943951023932</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <f aca="false">A3/180*PI()</f>
+        <v>1.91986217719376</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <f aca="false">A4/180*PI()</f>
+        <v>1.74532925199433</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <f aca="false">A5/180*PI()</f>
+        <v>1.5707963267949</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <f aca="false">A6/180*PI()</f>
+        <v>1.39626340159546</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <f aca="false">A7/180*PI()</f>
+        <v>1.22173047639603</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <f aca="false">A8/180*PI()</f>
+        <v>1.0471975511966</v>
       </c>
     </row>
   </sheetData>
@@ -440,6 +941,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -451,12 +953,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2:D8 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -477,12 +979,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2:D8 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
